--- a/LMS_RestassuredAPI_BDD/src/test/resources/TestData/DataExcel.xlsx
+++ b/LMS_RestassuredAPI_BDD/src/test/resources/TestData/DataExcel.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tusha\eclipse-workspace\eclipse workspace 3\LMS_RestassuredAPI_BDD\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tusha\git\LMSRestAssuredAPIAug2023\LMS_RestassuredAPI_BDD\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D823769C-4FCF-495B-904E-822427E405B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA45CA07-1C11-41AD-9F49-B806AE243DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73EA3766-16BF-4183-83E6-A22A49A2E0C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{73EA3766-16BF-4183-83E6-A22A49A2E0C6}"/>
   </bookViews>
   <sheets>
     <sheet name="programPostData" sheetId="2" r:id="rId1"/>
-    <sheet name="batchpostdata" sheetId="3" r:id="rId2"/>
-    <sheet name="userpostdata" sheetId="8" r:id="rId3"/>
-    <sheet name="userputdata" sheetId="9" r:id="rId4"/>
-    <sheet name="Assignmentpostdata" sheetId="6" r:id="rId5"/>
-    <sheet name="AssignSubmitpostdata" sheetId="7" r:id="rId6"/>
+    <sheet name="programPutData" sheetId="10" r:id="rId2"/>
+    <sheet name="batchpostdata" sheetId="3" r:id="rId3"/>
+    <sheet name="userpostdata" sheetId="8" r:id="rId4"/>
+    <sheet name="userputdata" sheetId="9" r:id="rId5"/>
+    <sheet name="Assignmentpostdata" sheetId="6" r:id="rId6"/>
+    <sheet name="AssignSubmitpostdata" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
   <si>
     <t>programName</t>
   </si>
@@ -258,6 +259,57 @@
   </si>
   <si>
     <t>Learning Selenium using Java</t>
+  </si>
+  <si>
+    <t>user comments</t>
+  </si>
+  <si>
+    <t>create new program1</t>
+  </si>
+  <si>
+    <t>create new program2</t>
+  </si>
+  <si>
+    <t>MissngFewMandatoryBody</t>
+  </si>
+  <si>
+    <t>Missng All Mandatory Body</t>
+  </si>
+  <si>
+    <t>Program Name All Numeric Body</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning Selenium using Java </t>
+  </si>
+  <si>
+    <t>Learn Java</t>
+  </si>
+  <si>
+    <t>Learning RestAssured API and Postman</t>
+  </si>
+  <si>
+    <t>update program by name</t>
+  </si>
+  <si>
+    <t>update program by ID</t>
+  </si>
+  <si>
+    <t>Learn data Science</t>
+  </si>
+  <si>
+    <t>missing mandatory fields by ID</t>
+  </si>
+  <si>
+    <t>Learn SQL</t>
+  </si>
+  <si>
+    <t>missing mandatory fields by Program</t>
+  </si>
+  <si>
+    <t>Learning Selenium using Javascript</t>
   </si>
 </sst>
 </file>
@@ -630,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D934DE-7C8E-4ABF-853C-4DAC70642562}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +693,7 @@
     <col min="1" max="1" width="40.5546875" customWidth="1"/>
     <col min="2" max="2" width="33.109375" customWidth="1"/>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -655,6 +707,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -666,7 +721,9 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -677,6 +734,42 @@
       </c>
       <c r="C3" t="s">
         <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>12345</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -686,6 +779,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13E17BA-C150-4E4C-9723-86614A70260F}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="49.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7933EB-B12C-4508-B919-C5C7CBB0B968}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -738,7 +904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B3FEB2-A7F2-4F8E-B631-AE296FF4DB15}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -856,7 +1022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D286D4FF-FC45-47AF-AA23-79D868421EBA}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -969,7 +1135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279D079B-8CEF-4555-970A-B94E475C5E47}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1049,7 +1215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C96CC0-6312-4A36-8130-7FFC29687640}">
   <dimension ref="A1:H2"/>
   <sheetViews>
